--- a/PredictionSheets/VM 2014 Tippekonkuranse - Erik.xlsx
+++ b/PredictionSheets/VM 2014 Tippekonkuranse - Erik.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\R\Documents\GitHub\VMTipping\PredictionSheets\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="2100" yWindow="0" windowWidth="25365" windowHeight="14265" activeTab="1"/>
   </bookViews>
@@ -11,7 +16,7 @@
     <sheet name="Sluttspilltipp" sheetId="2" r:id="rId2"/>
     <sheet name="Kampoppsett" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -467,12 +472,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="[$-414]d/\ mmmm;@"/>
     <numFmt numFmtId="165" formatCode="hh:mm;@"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1806,8 +1811,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
     <tabColor rgb="FFFFFF00"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -1815,12 +1820,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="11" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="21">
+    <row r="1" spans="1:15" ht="21" x14ac:dyDescent="0.35">
       <c r="B1" s="19" t="s">
         <v>44</v>
       </c>
@@ -1830,13 +1835,13 @@
       <c r="N1" s="64"/>
       <c r="O1" s="64"/>
     </row>
-    <row r="2" spans="1:15" ht="15.75" thickBot="1">
+    <row r="2" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L2" s="64"/>
       <c r="M2" s="64"/>
       <c r="N2" s="64"/>
       <c r="O2" s="64"/>
     </row>
-    <row r="3" spans="1:15" ht="27.95" customHeight="1" thickBot="1">
+    <row r="3" spans="1:15" ht="27.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="15" t="s">
         <v>45</v>
       </c>
@@ -1851,13 +1856,13 @@
       <c r="N3" s="64"/>
       <c r="O3" s="64"/>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="L4" s="64"/>
       <c r="M4" s="64"/>
       <c r="N4" s="64"/>
       <c r="O4" s="64"/>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>42</v>
       </c>
@@ -1875,7 +1880,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C9" s="1" t="s">
         <v>41</v>
       </c>
@@ -1890,7 +1895,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="15.75" thickBot="1">
+    <row r="10" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -1916,7 +1921,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="27.95" customHeight="1">
+    <row r="11" spans="1:15" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>1</v>
       </c>
@@ -1950,7 +1955,7 @@
         <v>D</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="27.95" customHeight="1">
+    <row r="12" spans="1:15" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>3</v>
       </c>
@@ -1984,7 +1989,7 @@
         <v>H</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="27.95" customHeight="1">
+    <row r="13" spans="1:15" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>1</v>
       </c>
@@ -2018,7 +2023,7 @@
         <v>A</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="27.95" customHeight="1">
+    <row r="14" spans="1:15" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
         <v>4</v>
       </c>
@@ -2052,7 +2057,7 @@
         <v>A</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="27.95" customHeight="1">
+    <row r="15" spans="1:15" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
         <v>4</v>
       </c>
@@ -2086,7 +2091,7 @@
         <v>D</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="27.95" customHeight="1" thickBot="1">
+    <row r="16" spans="1:15" ht="27.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="10" t="s">
         <v>2</v>
       </c>
@@ -2120,7 +2125,7 @@
         <v>A</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="20.25" customHeight="1">
+    <row r="17" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="2"/>
@@ -2128,7 +2133,7 @@
       <c r="J17" s="1"/>
       <c r="K17" s="2"/>
     </row>
-    <row r="18" spans="1:11" ht="20.25" customHeight="1" thickBot="1">
+    <row r="18" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>5</v>
       </c>
@@ -2142,7 +2147,7 @@
       <c r="J18" s="1"/>
       <c r="K18" s="2"/>
     </row>
-    <row r="19" spans="1:11" ht="27.95" customHeight="1">
+    <row r="19" spans="1:11" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>6</v>
       </c>
@@ -2176,7 +2181,7 @@
         <v>H</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="27.95" customHeight="1">
+    <row r="20" spans="1:11" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
         <v>8</v>
       </c>
@@ -2210,7 +2215,7 @@
         <v>A</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="27.95" customHeight="1">
+    <row r="21" spans="1:11" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
         <v>6</v>
       </c>
@@ -2244,7 +2249,7 @@
         <v>H</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="27.95" customHeight="1">
+    <row r="22" spans="1:11" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
         <v>9</v>
       </c>
@@ -2278,7 +2283,7 @@
         <v>A</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="27.95" customHeight="1">
+    <row r="23" spans="1:11" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
         <v>9</v>
       </c>
@@ -2312,7 +2317,7 @@
         <v>A</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="27.95" customHeight="1" thickBot="1">
+    <row r="24" spans="1:11" ht="27.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="10" t="s">
         <v>7</v>
       </c>
@@ -2346,7 +2351,7 @@
         <v>H</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="20.25" customHeight="1">
+    <row r="25" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="2"/>
@@ -2354,7 +2359,7 @@
       <c r="J25" s="1"/>
       <c r="K25" s="2"/>
     </row>
-    <row r="26" spans="1:11" ht="20.25" customHeight="1" thickBot="1">
+    <row r="26" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>10</v>
       </c>
@@ -2368,7 +2373,7 @@
       <c r="J26" s="1"/>
       <c r="K26" s="2"/>
     </row>
-    <row r="27" spans="1:11" ht="27.95" customHeight="1">
+    <row r="27" spans="1:11" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
         <v>11</v>
       </c>
@@ -2402,7 +2407,7 @@
         <v>H</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="27.95" customHeight="1">
+    <row r="28" spans="1:11" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="8" t="s">
         <v>13</v>
       </c>
@@ -2436,7 +2441,7 @@
         <v>D</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="27.95" customHeight="1">
+    <row r="29" spans="1:11" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="s">
         <v>11</v>
       </c>
@@ -2470,7 +2475,7 @@
         <v>H</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="27.95" customHeight="1">
+    <row r="30" spans="1:11" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="s">
         <v>14</v>
       </c>
@@ -2504,7 +2509,7 @@
         <v>A</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="27.95" customHeight="1">
+    <row r="31" spans="1:11" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
         <v>14</v>
       </c>
@@ -2538,7 +2543,7 @@
         <v>A</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="27.95" customHeight="1" thickBot="1">
+    <row r="32" spans="1:11" ht="27.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="10" t="s">
         <v>12</v>
       </c>
@@ -2572,7 +2577,7 @@
         <v>A</v>
       </c>
     </row>
-    <row r="33" spans="1:11" ht="20.25" customHeight="1">
+    <row r="33" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
       <c r="E33" s="2"/>
@@ -2580,7 +2585,7 @@
       <c r="J33" s="1"/>
       <c r="K33" s="2"/>
     </row>
-    <row r="34" spans="1:11" ht="20.25" customHeight="1" thickBot="1">
+    <row r="34" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>15</v>
       </c>
@@ -2594,7 +2599,7 @@
       <c r="J34" s="1"/>
       <c r="K34" s="2"/>
     </row>
-    <row r="35" spans="1:11" ht="27.95" customHeight="1">
+    <row r="35" spans="1:11" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
         <v>16</v>
       </c>
@@ -2628,7 +2633,7 @@
         <v>H</v>
       </c>
     </row>
-    <row r="36" spans="1:11" ht="27.95" customHeight="1">
+    <row r="36" spans="1:11" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="8" t="s">
         <v>18</v>
       </c>
@@ -2662,7 +2667,7 @@
         <v>D</v>
       </c>
     </row>
-    <row r="37" spans="1:11" ht="27.95" customHeight="1">
+    <row r="37" spans="1:11" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="8" t="s">
         <v>16</v>
       </c>
@@ -2696,7 +2701,7 @@
         <v>H</v>
       </c>
     </row>
-    <row r="38" spans="1:11" ht="27.95" customHeight="1">
+    <row r="38" spans="1:11" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="8" t="s">
         <v>19</v>
       </c>
@@ -2730,7 +2735,7 @@
         <v>D</v>
       </c>
     </row>
-    <row r="39" spans="1:11" ht="27.95" customHeight="1">
+    <row r="39" spans="1:11" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="8" t="s">
         <v>19</v>
       </c>
@@ -2764,7 +2769,7 @@
         <v>A</v>
       </c>
     </row>
-    <row r="40" spans="1:11" ht="27.95" customHeight="1" thickBot="1">
+    <row r="40" spans="1:11" ht="27.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="10" t="s">
         <v>17</v>
       </c>
@@ -2798,7 +2803,7 @@
         <v>A</v>
       </c>
     </row>
-    <row r="42" spans="1:11">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="21"/>
     </row>
   </sheetData>
@@ -2814,8 +2819,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
     <tabColor theme="6" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:D20"/>
@@ -2824,7 +2829,7 @@
       <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.85546875" bestFit="1" customWidth="1"/>
@@ -2836,17 +2841,17 @@
     <col min="15" max="15" width="19.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15.75" thickBot="1">
+    <row r="3" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="24" customHeight="1">
+    <row r="4" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="22" t="s">
         <v>131</v>
       </c>
@@ -2860,7 +2865,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="24" customHeight="1">
+    <row r="5" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="25" t="s">
         <v>133</v>
       </c>
@@ -2874,7 +2879,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="24" customHeight="1">
+    <row r="6" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="25" t="s">
         <v>135</v>
       </c>
@@ -2888,7 +2893,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="24" customHeight="1" thickBot="1">
+    <row r="7" spans="1:4" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="28" t="s">
         <v>137</v>
       </c>
@@ -2902,7 +2907,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15.75" thickBot="1">
+    <row r="10" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="31" t="s">
         <v>47</v>
       </c>
@@ -2910,7 +2915,7 @@
       <c r="C10" s="32"/>
       <c r="D10" s="32"/>
     </row>
-    <row r="11" spans="1:4" ht="24" customHeight="1">
+    <row r="11" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="33" t="s">
         <v>1</v>
       </c>
@@ -2924,7 +2929,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="24" customHeight="1" thickBot="1">
+    <row r="12" spans="1:4" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="36" t="s">
         <v>23</v>
       </c>
@@ -2938,12 +2943,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="15.75" thickBot="1">
+    <row r="15" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="24" customHeight="1" thickBot="1">
+    <row r="16" spans="1:4" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="39" t="s">
         <v>1</v>
       </c>
@@ -2957,12 +2962,12 @@
         <v>26</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="15.75" thickBot="1">
+    <row r="19" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="24" customHeight="1" thickBot="1">
+    <row r="20" spans="1:4" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="42" t="s">
         <v>1</v>
       </c>
@@ -2988,8 +2993,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
     <tabColor rgb="FF00B050"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -2999,7 +3004,7 @@
       <selection activeCell="J20" sqref="F19:J20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="33" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.140625" customWidth="1"/>
@@ -3007,7 +3012,7 @@
     <col min="9" max="9" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>52</v>
       </c>
@@ -3015,7 +3020,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="50">
         <v>41802</v>
       </c>
@@ -3033,7 +3038,7 @@
       </c>
       <c r="G2" s="48"/>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="54">
         <v>41803</v>
       </c>
@@ -3060,7 +3065,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="54">
         <v>41807</v>
       </c>
@@ -3087,7 +3092,7 @@
         <v>0.91666666666666663</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="54">
         <v>41809</v>
       </c>
@@ -3114,7 +3119,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="54">
         <v>41813</v>
       </c>
@@ -3141,7 +3146,7 @@
         <v>0.91666666666666663</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="57">
         <v>41813</v>
       </c>
@@ -3168,7 +3173,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="61"/>
       <c r="B8" s="62"/>
       <c r="C8" s="21"/>
@@ -3187,7 +3192,7 @@
         <v>0.91666666666666663</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="50">
         <v>41803</v>
       </c>
@@ -3214,7 +3219,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="54">
         <v>41804</v>
       </c>
@@ -3241,7 +3246,7 @@
         <v>0.91666666666666663</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="54">
         <v>41808</v>
       </c>
@@ -3257,7 +3262,7 @@
       <c r="F11" s="46"/>
       <c r="G11" s="49"/>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="54">
         <v>41808</v>
       </c>
@@ -3275,7 +3280,7 @@
       </c>
       <c r="G12" s="49"/>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="54">
         <v>41813</v>
       </c>
@@ -3302,7 +3307,7 @@
         <v>0.91666666666666663</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="57">
         <v>41813</v>
       </c>
@@ -3329,7 +3334,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="15" spans="1:11" s="64" customFormat="1">
+    <row r="15" spans="1:11" s="64" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="61"/>
       <c r="B15" s="62"/>
       <c r="C15" s="21"/>
@@ -3348,7 +3353,7 @@
         <v>0.91666666666666663</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="50">
         <v>41804</v>
       </c>
@@ -3377,7 +3382,7 @@
       </c>
       <c r="K16" s="21"/>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="54">
         <v>41805</v>
       </c>
@@ -3393,7 +3398,7 @@
       <c r="F17" s="46"/>
       <c r="G17" s="49"/>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="54">
         <v>41809</v>
       </c>
@@ -3411,7 +3416,7 @@
       </c>
       <c r="G18" s="49"/>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="54">
         <v>41810</v>
       </c>
@@ -3438,7 +3443,7 @@
         <v>0.91666666666666663</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="54">
         <v>41814</v>
       </c>
@@ -3465,7 +3470,7 @@
         <v>0.91666666666666663</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="57">
         <v>41814</v>
       </c>
@@ -3481,7 +3486,7 @@
       <c r="F21" s="46"/>
       <c r="G21" s="49"/>
     </row>
-    <row r="22" spans="1:10" s="64" customFormat="1">
+    <row r="22" spans="1:10" s="64" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="61"/>
       <c r="B22" s="62"/>
       <c r="C22" s="21"/>
@@ -3491,7 +3496,7 @@
       </c>
       <c r="G22" s="66"/>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="50">
         <v>41804</v>
       </c>
@@ -3516,7 +3521,7 @@
         <v>0.91666666666666663</v>
       </c>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="54">
         <v>41805</v>
       </c>
@@ -3532,7 +3537,7 @@
       <c r="F24" s="46"/>
       <c r="G24" s="49"/>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="54">
         <v>41809</v>
       </c>
@@ -3550,7 +3555,7 @@
       </c>
       <c r="G25" s="49"/>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="54">
         <v>41810</v>
       </c>
@@ -3575,7 +3580,7 @@
         <v>0.875</v>
       </c>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="54">
         <v>41814</v>
       </c>
@@ -3590,7 +3595,7 @@
       </c>
       <c r="F27" s="45"/>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="57">
         <v>41814</v>
       </c>
@@ -3605,7 +3610,7 @@
       </c>
       <c r="F28" s="45"/>
     </row>
-    <row r="29" spans="1:10" s="64" customFormat="1">
+    <row r="29" spans="1:10" s="64" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="61"/>
       <c r="B29" s="62"/>
       <c r="C29" s="21"/>
@@ -3613,7 +3618,7 @@
       <c r="F29" s="67"/>
       <c r="G29" s="68"/>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="50">
         <v>41805</v>
       </c>
@@ -3631,7 +3636,7 @@
       <c r="G30" s="86"/>
       <c r="H30" s="87"/>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="54">
         <v>41805</v>
       </c>
@@ -3646,7 +3651,7 @@
       </c>
       <c r="F31" s="45"/>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="54">
         <v>41810</v>
       </c>
@@ -3661,7 +3666,7 @@
       </c>
       <c r="F32" s="45"/>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="54">
         <v>41811</v>
       </c>
@@ -3676,7 +3681,7 @@
       </c>
       <c r="F33" s="45"/>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="54">
         <v>41815</v>
       </c>
@@ -3691,7 +3696,7 @@
       </c>
       <c r="F34" s="45"/>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="57">
         <v>41815</v>
       </c>
@@ -3706,14 +3711,14 @@
       </c>
       <c r="F35" s="45"/>
     </row>
-    <row r="36" spans="1:7" s="64" customFormat="1">
+    <row r="36" spans="1:7" s="64" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="61"/>
       <c r="B36" s="62"/>
       <c r="C36" s="21"/>
       <c r="D36" s="63"/>
       <c r="G36" s="68"/>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="50">
         <v>41806</v>
       </c>
@@ -3727,7 +3732,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="54">
         <v>41806</v>
       </c>
@@ -3741,7 +3746,7 @@
         <v>0.875</v>
       </c>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="54">
         <v>41811</v>
       </c>
@@ -3755,7 +3760,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="54">
         <v>41812</v>
       </c>
@@ -3769,7 +3774,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="54">
         <v>41815</v>
       </c>
@@ -3783,7 +3788,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="57">
         <v>41815</v>
       </c>
@@ -3797,14 +3802,14 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="43" spans="1:7" s="64" customFormat="1">
+    <row r="43" spans="1:7" s="64" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="61"/>
       <c r="B43" s="62"/>
       <c r="C43" s="21"/>
       <c r="D43" s="63"/>
       <c r="G43" s="68"/>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="50">
         <v>41806</v>
       </c>
@@ -3818,7 +3823,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="54">
         <v>41807</v>
       </c>
@@ -3832,7 +3837,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="54">
         <v>41811</v>
       </c>
@@ -3846,7 +3851,7 @@
         <v>0.875</v>
       </c>
     </row>
-    <row r="47" spans="1:7">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="54">
         <v>41813</v>
       </c>
@@ -3860,7 +3865,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="48" spans="1:7">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="54">
         <v>41816</v>
       </c>
@@ -3874,7 +3879,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="49" spans="1:7">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="57">
         <v>41816</v>
       </c>
@@ -3888,14 +3893,14 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="50" spans="1:7" s="64" customFormat="1">
+    <row r="50" spans="1:7" s="64" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="61"/>
       <c r="B50" s="62"/>
       <c r="C50" s="21"/>
       <c r="D50" s="63"/>
       <c r="G50" s="68"/>
     </row>
-    <row r="51" spans="1:7">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="50">
         <v>41807</v>
       </c>
@@ -3909,7 +3914,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="52" spans="1:7">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="54">
         <v>41808</v>
       </c>
@@ -3923,7 +3928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:7">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="54">
         <v>41812</v>
       </c>
@@ -3937,7 +3942,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="54" spans="1:7">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="54">
         <v>41812</v>
       </c>
@@ -3951,7 +3956,7 @@
         <v>0.875</v>
       </c>
     </row>
-    <row r="55" spans="1:7">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="54">
         <v>41816</v>
       </c>
@@ -3965,7 +3970,7 @@
         <v>0.91666666666666663</v>
       </c>
     </row>
-    <row r="56" spans="1:7">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="57">
         <v>41816</v>
       </c>
